--- a/Doc/2.UI/社内システム/入金閲覧システム/画面レイアウト_入金閲覧システム.xlsx
+++ b/Doc/2.UI/社内システム/入金閲覧システム/画面レイアウト_入金閲覧システム.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="28800" windowHeight="12285" tabRatio="783"/>
+    <workbookView xWindow="0" yWindow="8400" windowWidth="28800" windowHeight="12285" tabRatio="783"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="2" r:id="rId1"/>
@@ -28,10 +28,6 @@
     <sheet name="入金予定表(表)" sheetId="58" r:id="rId19"/>
     <sheet name="Grid" sheetId="51" r:id="rId20"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId21"/>
-    <externalReference r:id="rId22"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1480,39 +1476,6 @@
     <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1575,6 +1538,39 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9252,7 +9248,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s17419"/>
+                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s17421"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -15811,7 +15807,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s18443"/>
+                  <a14:cameraTool cellRange="#REF!" spid="_x0000_s18445"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -20115,7 +20111,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grid!$T$3:$U$5" spid="_x0000_s11302"/>
+                  <a14:cameraTool cellRange="Grid!$T$3:$U$5" spid="_x0000_s11308"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -20331,7 +20327,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grid!$W$3:$Y$4" spid="_x0000_s11303"/>
+                  <a14:cameraTool cellRange="Grid!$W$3:$Y$4" spid="_x0000_s11309"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -20900,7 +20896,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Grid!$AA$3:$AD$4" spid="_x0000_s11304"/>
+                  <a14:cameraTool cellRange="Grid!$AA$3:$AD$4" spid="_x0000_s11310"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -21647,66 +21643,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>400050</xdr:colOff>
-          <xdr:row>9</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="図 5"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[2]Grid!$AF$3:$AJ$5" spid="_x0000_s24583"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="695325" y="1066800"/>
-              <a:ext cx="3819525" cy="609600"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:extLst/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="695325" y="1066800"/>
+          <a:ext cx="3819525" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -35828,46 +35815,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="請求情報_検索条件"/>
-      <sheetName val="入金情報_検索条件"/>
-      <sheetName val="請求情報_一覧"/>
-      <sheetName val="入金情報_一覧"/>
-      <sheetName val="業番の内訳"/>
-      <sheetName val="入金の内訳"/>
-      <sheetName val="Grid"/>
-      <sheetName val="既払メイン(直接原価)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -36146,6 +36093,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -36266,7 +36216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -36276,7 +36226,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -36308,26 +36257,26 @@
         <v>62</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="81" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="18">
         <v>0</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="83">
         <v>3941559892</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="83">
         <v>10395898006</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="61"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="19">
         <v>14337457898</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -36369,26 +36318,26 @@
         <v>70</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="84" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="18">
         <v>776174871</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="83">
         <v>3941559892</v>
       </c>
-      <c r="H3" s="62">
+      <c r="H3" s="83">
         <v>10395898006</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="64"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="19">
         <v>14337457898</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -36419,13 +36368,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="58" t="s">
         <v>166</v>
       </c>
       <c r="E2" s="31"/>
@@ -36437,46 +36386,46 @@
       <c r="K2" s="31"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="71">
+      <c r="P2" s="60">
         <v>776</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="67"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="57" t="s">
         <v>167</v>
       </c>
       <c r="E3" s="34">
         <v>0</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="G3" s="70" t="s">
+      <c r="G3" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="M3" s="70" t="s">
+      <c r="M3" s="59" t="s">
         <v>175</v>
       </c>
     </row>
@@ -36524,10 +36473,10 @@
       <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="77" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -36536,11 +36485,11 @@
       <c r="J12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
       <c r="N12" s="6" t="s">
         <v>34</v>
       </c>
@@ -36563,8 +36512,8 @@
       <c r="F13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="5" t="s">
         <v>27</v>
       </c>
@@ -36604,19 +36553,19 @@
       <c r="F14" s="18">
         <v>19776000</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="75">
         <v>7790000</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="75">
         <v>19776000</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
         <v>45</v>
@@ -36637,15 +36586,15 @@
       <c r="F15" s="19">
         <v>27566000</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="5" t="s">
         <v>44</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
       <c r="N15" s="19"/>
       <c r="O15" s="2" t="s">
         <v>45</v>
@@ -36664,10 +36613,10 @@
         <v>49</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="54">
+      <c r="G16" s="75">
         <v>0</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="75">
         <v>4400000</v>
       </c>
       <c r="I16" s="6" t="s">
@@ -36676,9 +36625,9 @@
       <c r="J16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="6" t="s">
         <v>52</v>
       </c>
@@ -36701,15 +36650,15 @@
       <c r="F17" s="19">
         <v>4400000</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="5" t="s">
         <v>50</v>
       </c>
       <c r="J17" s="5"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
       <c r="N17" s="19">
         <v>4557</v>
       </c>
@@ -36730,19 +36679,19 @@
         <v>41</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="54">
+      <c r="G18" s="75">
         <v>3300000</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="75">
         <v>0</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56" t="s">
+      <c r="L18" s="77"/>
+      <c r="M18" s="77" t="s">
         <v>43</v>
       </c>
       <c r="N18" s="6" t="s">
@@ -36767,15 +36716,15 @@
       <c r="F19" s="19">
         <v>3300000</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
       <c r="N19" s="19">
         <v>662</v>
       </c>
@@ -36798,19 +36747,19 @@
       <c r="F20" s="18">
         <v>1135815</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="75">
         <v>14003545</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="75">
         <v>0</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56" t="s">
+      <c r="K20" s="77"/>
+      <c r="L20" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="56" t="s">
+      <c r="M20" s="77" t="s">
         <v>43</v>
       </c>
       <c r="N20" s="9" t="s">
@@ -36835,15 +36784,15 @@
       <c r="F21" s="19">
         <v>14003545</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="8" t="s">
         <v>59</v>
       </c>
       <c r="J21" s="8"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
       <c r="N21" s="19">
         <v>0</v>
       </c>
@@ -36854,11 +36803,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
@@ -36867,16 +36821,11 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38961,6 +38910,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -39012,10 +38964,10 @@
       <c r="F12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="56" t="s">
+      <c r="H12" s="77" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="9" t="s">
@@ -39024,11 +38976,11 @@
       <c r="J12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
       <c r="N12" s="9" t="s">
         <v>3</v>
       </c>
@@ -39053,8 +39005,8 @@
       <c r="F13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="8" t="s">
         <v>27</v>
       </c>
@@ -39094,21 +39046,21 @@
       <c r="F14" s="18">
         <v>979000</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="75">
         <v>0</v>
       </c>
-      <c r="H14" s="54">
+      <c r="H14" s="75">
         <v>979000</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
         <v>45</v>
@@ -39129,13 +39081,13 @@
       <c r="F15" s="19">
         <v>979000</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
       <c r="N15" s="19"/>
       <c r="O15" s="2" t="s">
         <v>45</v>
@@ -39158,21 +39110,21 @@
       <c r="F16" s="18">
         <v>18797000</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="75">
         <v>7790000</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="75">
         <v>18797000</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="J16" s="9"/>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
         <v>45</v>
@@ -39193,13 +39145,13 @@
       <c r="F17" s="19">
         <v>26587000</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
       <c r="N17" s="19"/>
       <c r="O17" s="2" t="s">
         <v>45</v>
@@ -39218,19 +39170,19 @@
         <v>4</v>
       </c>
       <c r="F18" s="18"/>
-      <c r="G18" s="54">
+      <c r="G18" s="75">
         <v>3300000</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="75">
         <v>0</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="56" t="s">
+      <c r="K18" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56" t="s">
+      <c r="L18" s="77"/>
+      <c r="M18" s="77" t="s">
         <v>43</v>
       </c>
       <c r="N18" s="9" t="s">
@@ -39255,15 +39207,15 @@
       <c r="F19" s="19">
         <v>3300000</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J19" s="8"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="78"/>
       <c r="N19" s="19">
         <v>0</v>
       </c>
@@ -39286,10 +39238,10 @@
       <c r="F20" s="18">
         <v>2613600</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="75">
         <v>10560000</v>
       </c>
-      <c r="H20" s="54">
+      <c r="H20" s="75">
         <v>0</v>
       </c>
       <c r="I20" s="9" t="s">
@@ -39298,13 +39250,13 @@
       <c r="J20" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="56" t="s">
+      <c r="K20" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="56" t="s">
+      <c r="L20" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="M20" s="56" t="s">
+      <c r="M20" s="77" t="s">
         <v>43</v>
       </c>
       <c r="N20" s="9" t="s">
@@ -39329,13 +39281,13 @@
       <c r="F21" s="19">
         <v>10560000</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
       <c r="N21" s="19">
         <v>0</v>
       </c>
@@ -39346,21 +39298,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="K12:M12"/>
@@ -39369,6 +39306,21 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39379,6 +39331,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
@@ -39468,13 +39423,13 @@
       <c r="E12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="59"/>
+      <c r="H12" s="80"/>
       <c r="I12" s="26" t="s">
         <v>86</v>
       </c>
@@ -39560,7 +39515,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="31"/>
-      <c r="H14" s="76">
+      <c r="H14" s="65">
         <v>0.3</v>
       </c>
       <c r="I14" s="32"/>
@@ -39588,20 +39543,20 @@
       <c r="F15" s="37">
         <v>0</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="82"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="71"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
-      <c r="H16" s="73">
+      <c r="H16" s="62">
         <v>1</v>
       </c>
       <c r="I16" s="2"/>
@@ -39626,7 +39581,7 @@
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="31"/>
-      <c r="H17" s="76">
+      <c r="H17" s="65">
         <v>7.4</v>
       </c>
       <c r="I17" s="32"/>
@@ -39635,7 +39590,7 @@
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="33"/>
-      <c r="O17" s="65"/>
+      <c r="O17" s="54"/>
       <c r="P17" s="27"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -39654,18 +39609,18 @@
       <c r="F18" s="37">
         <v>24.8</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="83" t="s">
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="P18" s="82"/>
+      <c r="P18" s="71"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="G19" s="2"/>
@@ -39676,7 +39631,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="84" t="s">
+      <c r="O19" s="73" t="s">
         <v>176</v>
       </c>
       <c r="P19" s="2"/>
@@ -39722,23 +39677,23 @@
       <c r="F21" s="37">
         <v>16.3</v>
       </c>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="82"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="71"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="25"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="2"/>
       <c r="H22" s="34">
         <v>18.899999999999999</v>
@@ -39749,7 +39704,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="85" t="s">
+      <c r="O22" s="74" t="s">
         <v>177</v>
       </c>
       <c r="P22" s="2"/>
@@ -39758,391 +39713,391 @@
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="80"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="69"/>
       <c r="P23" s="24"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="25"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
       <c r="P24" s="24"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="80"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="69"/>
       <c r="P25" s="24"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="25"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
       <c r="P26" s="24"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="80"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="69"/>
       <c r="P27" s="24"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="25"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
       <c r="P28" s="24"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="80"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="69"/>
       <c r="P29" s="24"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="25"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
       <c r="P30" s="24"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="80"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="69"/>
       <c r="P31" s="24"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="25"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
       <c r="P32" s="24"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="80"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="69"/>
       <c r="P33" s="24"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="25"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="77"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
       <c r="P34" s="24"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="80"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="69"/>
       <c r="P35" s="24"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="25"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
       <c r="P36" s="24"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="80"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="69"/>
       <c r="P37" s="24"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="25"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
       <c r="P38" s="24"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="80"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="69"/>
       <c r="P39" s="24"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="25"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
       <c r="P40" s="24"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="80"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="69"/>
       <c r="P41" s="24"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="25"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
       <c r="P42" s="24"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="80"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="69"/>
       <c r="P43" s="24"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="25"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
       <c r="P44" s="24"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="80"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="69"/>
       <c r="P45" s="24"/>
     </row>
   </sheetData>
